--- a/Data/Ballard Locks Fish Counts/BallardLocks2018 - daily (1).xlsx
+++ b/Data/Ballard Locks Fish Counts/BallardLocks2018 - daily (1).xlsx
@@ -1,16 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth Allyn\Documents\GitHub\PinnipedCaseStudies\Data\Ballard Locks Fish Counts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCB8DD8-7DDD-4FF0-800C-C909499BBD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="1950" yWindow="1110" windowWidth="24960" windowHeight="14355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Counts" sheetId="1" r:id="rId1"/>
     <sheet name="Historical" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -125,7 +142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
@@ -405,11 +422,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -417,17 +434,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,12 +465,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1195,6 +1215,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1686-45FD-8DDC-B0F107231D6E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1917,6 +1942,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1686-45FD-8DDC-B0F107231D6E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2010,7 +2040,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2039,7 +2068,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2781,6 +2810,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33DC-4C7F-AB2A-69050110C458}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3503,6 +3537,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-33DC-4C7F-AB2A-69050110C458}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3596,7 +3635,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3625,7 +3663,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3881,6 +3919,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-442C-4A66-BC7B-C6D53A82785D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4117,6 +4160,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-442C-4A66-BC7B-C6D53A82785D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4210,7 +4258,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4239,7 +4286,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4981,6 +5028,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6A8-483D-B135-3F956A183DC1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5695,6 +5747,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D6A8-483D-B135-3F956A183DC1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5788,7 +5845,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5817,7 +5873,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6559,6 +6615,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8E2-43CB-9B88-BE73259BA16B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7273,6 +7334,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C8E2-43CB-9B88-BE73259BA16B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7366,7 +7432,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7395,7 +7460,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7651,6 +7716,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-941B-4ABA-A9B5-BE502AA67974}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7879,6 +7949,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-941B-4ABA-A9B5-BE502AA67974}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7972,7 +8047,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8017,7 +8091,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8047,7 +8127,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8079,7 +8165,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8111,7 +8203,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8143,7 +8241,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8175,7 +8279,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8196,9 +8306,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8236,7 +8346,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -8308,7 +8418,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8481,39 +8591,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AL41" sqref="AL41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="6.6640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="8.33203125" style="2" customWidth="1"/>
-    <col min="8" max="10" width="6.6640625" style="2" customWidth="1"/>
-    <col min="11" max="12" width="4.6640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" style="6" customWidth="1"/>
-    <col min="15" max="16" width="6.6640625" style="2" customWidth="1"/>
-    <col min="17" max="18" width="4.6640625" style="6" customWidth="1"/>
-    <col min="19" max="20" width="8.33203125" style="2" customWidth="1"/>
-    <col min="21" max="23" width="6.6640625" style="2" customWidth="1"/>
-    <col min="24" max="25" width="4.6640625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="6.6640625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="6" customWidth="1"/>
-    <col min="28" max="29" width="6.6640625" style="2" customWidth="1"/>
-    <col min="30" max="31" width="4.6640625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="6.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="6.7109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="8.28515625" style="2" customWidth="1"/>
+    <col min="8" max="10" width="6.7109375" style="2" customWidth="1"/>
+    <col min="11" max="12" width="4.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" style="6" customWidth="1"/>
+    <col min="15" max="16" width="6.7109375" style="2" customWidth="1"/>
+    <col min="17" max="18" width="4.7109375" style="6" customWidth="1"/>
+    <col min="19" max="20" width="8.28515625" style="2" customWidth="1"/>
+    <col min="21" max="23" width="6.7109375" style="2" customWidth="1"/>
+    <col min="24" max="25" width="4.7109375" style="6" customWidth="1"/>
+    <col min="26" max="26" width="6.7109375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.7109375" style="6" customWidth="1"/>
+    <col min="28" max="29" width="6.7109375" style="2" customWidth="1"/>
+    <col min="30" max="31" width="4.7109375" style="6" customWidth="1"/>
+    <col min="32" max="32" width="6.7109375" style="2" customWidth="1"/>
     <col min="33" max="33" width="11" style="2" customWidth="1"/>
-    <col min="34" max="34" width="6.6640625" style="2" customWidth="1"/>
+    <col min="34" max="34" width="6.7109375" style="2" customWidth="1"/>
     <col min="35" max="35" width="11" style="2" customWidth="1"/>
-    <col min="36" max="36" width="6.6640625" style="2" customWidth="1"/>
+    <col min="36" max="36" width="6.7109375" style="2" customWidth="1"/>
     <col min="37" max="37" width="11" style="2" customWidth="1"/>
-    <col min="38" max="16384" width="8.88671875" style="2"/>
+    <col min="38" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
@@ -8527,7 +8639,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -8585,7 +8697,7 @@
       </c>
       <c r="AK2" s="27"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -8701,7 +8813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43263</v>
       </c>
@@ -8834,7 +8946,7 @@
       </c>
       <c r="AL4" s="51"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43264</v>
       </c>
@@ -8967,7 +9079,7 @@
       </c>
       <c r="AL5" s="51"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43265</v>
       </c>
@@ -9102,7 +9214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43266</v>
       </c>
@@ -9235,7 +9347,7 @@
       </c>
       <c r="AL7" s="51"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43267</v>
       </c>
@@ -9368,7 +9480,7 @@
       </c>
       <c r="AL8" s="51"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43268</v>
       </c>
@@ -9501,7 +9613,7 @@
       </c>
       <c r="AL9" s="51"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43269</v>
       </c>
@@ -9634,7 +9746,7 @@
       </c>
       <c r="AL10" s="51"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43270</v>
       </c>
@@ -9767,7 +9879,7 @@
       </c>
       <c r="AL11" s="51"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43271</v>
       </c>
@@ -9900,7 +10012,7 @@
       </c>
       <c r="AL12" s="51"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43272</v>
       </c>
@@ -10033,7 +10145,7 @@
       </c>
       <c r="AL13" s="51"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43273</v>
       </c>
@@ -10166,7 +10278,7 @@
       </c>
       <c r="AL14" s="51"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43274</v>
       </c>
@@ -10299,7 +10411,7 @@
       </c>
       <c r="AL15" s="51"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43275</v>
       </c>
@@ -10432,7 +10544,7 @@
       </c>
       <c r="AL16" s="51"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43276</v>
       </c>
@@ -10565,7 +10677,7 @@
       </c>
       <c r="AL17" s="51"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43277</v>
       </c>
@@ -10698,7 +10810,7 @@
       </c>
       <c r="AL18" s="51"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43278</v>
       </c>
@@ -10831,7 +10943,7 @@
       </c>
       <c r="AL19" s="51"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43279</v>
       </c>
@@ -10964,7 +11076,7 @@
       </c>
       <c r="AL20" s="51"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43280</v>
       </c>
@@ -11097,7 +11209,7 @@
       </c>
       <c r="AL21" s="51"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43281</v>
       </c>
@@ -11229,7 +11341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43282</v>
       </c>
@@ -11361,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43283</v>
       </c>
@@ -11493,7 +11605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43284</v>
       </c>
@@ -11625,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43285</v>
       </c>
@@ -11757,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43286</v>
       </c>
@@ -11889,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43287</v>
       </c>
@@ -12024,7 +12136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43288</v>
       </c>
@@ -12159,7 +12271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43289</v>
       </c>
@@ -12291,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43290</v>
       </c>
@@ -12423,7 +12535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43291</v>
       </c>
@@ -12555,7 +12667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>43292</v>
       </c>
@@ -12690,7 +12802,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43293</v>
       </c>
@@ -12822,7 +12934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43294</v>
       </c>
@@ -12954,7 +13066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43295</v>
       </c>
@@ -13086,7 +13198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43296</v>
       </c>
@@ -13218,7 +13330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43297</v>
       </c>
@@ -13353,7 +13465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>43298</v>
       </c>
@@ -13488,7 +13600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>43299</v>
       </c>
@@ -13620,7 +13732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>43300</v>
       </c>
@@ -13755,7 +13867,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43301</v>
       </c>
@@ -13887,7 +13999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43302</v>
       </c>
@@ -14019,7 +14131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43303</v>
       </c>
@@ -14151,7 +14263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43304</v>
       </c>
@@ -14283,7 +14395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>43305</v>
       </c>
@@ -14415,7 +14527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43306</v>
       </c>
@@ -14547,7 +14659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43307</v>
       </c>
@@ -14679,7 +14791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43308</v>
       </c>
@@ -14811,7 +14923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>43309</v>
       </c>
@@ -14943,7 +15055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>43310</v>
       </c>
@@ -15075,7 +15187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>43311</v>
       </c>
@@ -15207,7 +15319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>43312</v>
       </c>
@@ -15339,7 +15451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>43313</v>
       </c>
@@ -15471,7 +15583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>43314</v>
       </c>
@@ -15603,7 +15715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>43315</v>
       </c>
@@ -15735,7 +15847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>43316</v>
       </c>
@@ -15867,7 +15979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>43317</v>
       </c>
@@ -15999,7 +16111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>43318</v>
       </c>
@@ -16131,7 +16243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>43319</v>
       </c>
@@ -16266,7 +16378,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>43320</v>
       </c>
@@ -16398,7 +16510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>43321</v>
       </c>
@@ -16530,7 +16642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>43322</v>
       </c>
@@ -16662,7 +16774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>43323</v>
       </c>
@@ -16794,7 +16906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>43324</v>
       </c>
@@ -16926,7 +17038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>43325</v>
       </c>
@@ -17058,7 +17170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>43326</v>
       </c>
@@ -17190,7 +17302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>43327</v>
       </c>
@@ -17322,7 +17434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>43328</v>
       </c>
@@ -17454,7 +17566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>43329</v>
       </c>
@@ -17586,7 +17698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>43330</v>
       </c>
@@ -17718,7 +17830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>43331</v>
       </c>
@@ -17850,7 +17962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>43332</v>
       </c>
@@ -17982,7 +18094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>43333</v>
       </c>
@@ -18117,7 +18229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>43334</v>
       </c>
@@ -18249,7 +18361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>43335</v>
       </c>
@@ -18381,7 +18493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>43336</v>
       </c>
@@ -18513,7 +18625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43337</v>
       </c>
@@ -18645,7 +18757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>43338</v>
       </c>
@@ -18777,7 +18889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>43339</v>
       </c>
@@ -18909,7 +19021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>43340</v>
       </c>
@@ -19041,7 +19153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>43341</v>
       </c>
@@ -19173,7 +19285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>43342</v>
       </c>
@@ -19305,7 +19417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>43343</v>
       </c>
@@ -19437,7 +19549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>43344</v>
       </c>
@@ -19572,7 +19684,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>43345</v>
       </c>
@@ -19704,7 +19816,7 @@
         <v>277.69696969696975</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>43346</v>
       </c>
@@ -19836,7 +19948,7 @@
         <v>524.24242424242425</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>43347</v>
       </c>
@@ -19968,7 +20080,7 @@
         <v>724.19047619047615</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>43348</v>
       </c>
@@ -20103,7 +20215,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>43349</v>
       </c>
@@ -20235,7 +20347,7 @@
         <v>1382.2904761904761</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>43350</v>
       </c>
@@ -20367,7 +20479,7 @@
         <v>2528.4722943722941</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>43351</v>
       </c>
@@ -20499,7 +20611,7 @@
         <v>2875.1389610389606</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>43352</v>
       </c>
@@ -20631,7 +20743,7 @@
         <v>3314.9389610389608</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>43353</v>
       </c>
@@ -20763,7 +20875,7 @@
         <v>4131.1207792207788</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>43354</v>
       </c>
@@ -20895,7 +21007,7 @@
         <v>4561.1207792207788</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>43355</v>
       </c>
@@ -21027,7 +21139,7 @@
         <v>5234.3329004328998</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>43356</v>
       </c>
@@ -21159,7 +21271,7 @@
         <v>6159.5692640692632</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>43357</v>
       </c>
@@ -21291,7 +21403,7 @@
         <v>7334.8419913419903</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>43358</v>
       </c>
@@ -21423,7 +21535,7 @@
         <v>7826.8419913419903</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>43359</v>
       </c>
@@ -21555,7 +21667,7 @@
         <v>8410.8419913419893</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>43360</v>
       </c>
@@ -21687,7 +21799,7 @@
         <v>8829.5874458874441</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>43361</v>
       </c>
@@ -21819,7 +21931,7 @@
         <v>9211.4056277056261</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>43362</v>
       </c>
@@ -21951,7 +22063,7 @@
         <v>9437.9510822510802</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>43363</v>
       </c>
@@ -22083,7 +22195,7 @@
         <v>9583.9813852813841</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>43364</v>
       </c>
@@ -22215,7 +22327,7 @@
         <v>9813.072294372294</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>43365</v>
       </c>
@@ -22347,7 +22459,7 @@
         <v>10076.345021645022</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>43366</v>
       </c>
@@ -22479,7 +22591,7 @@
         <v>10114.635930735931</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>43367</v>
       </c>
@@ -22611,7 +22723,7 @@
         <v>10215.92683982684</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>43368</v>
       </c>
@@ -22743,7 +22855,7 @@
         <v>10360.799567099566</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>43369</v>
       </c>
@@ -22875,7 +22987,7 @@
         <v>10657.526839826838</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>43370</v>
       </c>
@@ -23007,7 +23119,7 @@
         <v>10792.799567099566</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>43371</v>
       </c>
@@ -23139,7 +23251,7 @@
         <v>10930.73896103896</v>
       </c>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>43372</v>
       </c>
@@ -23271,7 +23383,7 @@
         <v>11002.920779220778</v>
       </c>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>43373</v>
       </c>
@@ -23403,7 +23515,7 @@
         <v>11034.702597402596</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>43374</v>
       </c>
@@ -23535,7 +23647,7 @@
         <v>11071.884415584414</v>
       </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>43375</v>
       </c>
@@ -23677,39 +23789,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R117"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="912" topLeftCell="A85" activePane="bottomLeft"/>
+      <pane ySplit="915" topLeftCell="A85" activePane="bottomLeft"/>
       <selection activeCell="X6" sqref="X6"/>
       <selection pane="bottomLeft" activeCell="Q121" sqref="Q121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="2"/>
+    <col min="14" max="14" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="2"/>
+    <col min="17" max="17" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
@@ -23720,7 +23832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
@@ -23770,7 +23882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="48">
         <v>43263</v>
       </c>
@@ -23812,7 +23924,7 @@
         <v>8.2987041727114012E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="48">
         <v>43264</v>
       </c>
@@ -23854,7 +23966,7 @@
         <v>1.5183555041923823E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="48">
         <v>43265</v>
       </c>
@@ -23896,7 +24008,7 @@
         <v>2.0654552607637267E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="48">
         <v>43266</v>
       </c>
@@ -23938,7 +24050,7 @@
         <v>3.0133516929356511E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="48">
         <v>43267</v>
       </c>
@@ -23980,7 +24092,7 @@
         <v>4.2661486636012685E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="48">
         <v>43268</v>
       </c>
@@ -24022,7 +24134,7 @@
         <v>5.3910841181243702E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="48">
         <v>43269</v>
       </c>
@@ -24064,7 +24176,7 @@
         <v>6.6426516511347705E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="48">
         <v>43270</v>
       </c>
@@ -24106,7 +24218,7 @@
         <v>8.2212496004327618E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="48">
         <v>43271</v>
       </c>
@@ -24148,7 +24260,7 @@
         <v>0.1025842779512651</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="48">
         <v>43272</v>
       </c>
@@ -24190,7 +24302,7 @@
         <v>0.1206938946126042</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="48">
         <v>43273</v>
       </c>
@@ -24232,7 +24344,7 @@
         <v>0.14900784381224028</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="48">
         <v>43274</v>
       </c>
@@ -24274,7 +24386,7 @@
         <v>0.18085027908234774</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="48">
         <v>43275</v>
       </c>
@@ -24316,7 +24428,7 @@
         <v>0.20386535198800068</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="48">
         <v>43276</v>
       </c>
@@ -24358,7 +24470,7 @@
         <v>0.23188423615038481</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="48">
         <v>43277</v>
       </c>
@@ -24400,7 +24512,7 @@
         <v>0.25467801027809878</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="48">
         <v>43278</v>
       </c>
@@ -24442,7 +24554,7 @@
         <v>0.28218053062529197</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="48">
         <v>43279</v>
       </c>
@@ -24484,7 +24596,7 @@
         <v>0.31253534633258745</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="48">
         <v>43280</v>
       </c>
@@ -24526,7 +24638,7 @@
         <v>0.34410730531854727</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="48">
         <v>43281</v>
       </c>
@@ -24568,7 +24680,7 @@
         <v>0.37716688386731911</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="48">
         <v>43282</v>
       </c>
@@ -24610,7 +24722,7 @@
         <v>0.40410386289311268</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="48">
         <v>43283</v>
       </c>
@@ -24652,7 +24764,7 @@
         <v>0.43156950011064937</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="48">
         <v>43284</v>
       </c>
@@ -24694,7 +24806,7 @@
         <v>0.4588261329267993</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="48">
         <v>43285</v>
       </c>
@@ -24736,7 +24848,7 @@
         <v>0.49934839804273523</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="48">
         <v>43286</v>
       </c>
@@ -24778,7 +24890,7 @@
         <v>0.5290147286631095</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="48">
         <v>43287</v>
       </c>
@@ -24820,7 +24932,7 @@
         <v>0.56806166859278562</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="48">
         <v>43288</v>
       </c>
@@ -24862,7 +24974,7 @@
         <v>0.60446531756374633</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="48">
         <v>43289</v>
       </c>
@@ -24904,7 +25016,7 @@
         <v>0.62563623398657453</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="48">
         <v>43290</v>
       </c>
@@ -24946,7 +25058,7 @@
         <v>0.65478620079175787</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="48">
         <v>43291</v>
       </c>
@@ -24988,7 +25100,7 @@
         <v>0.67935036514298364</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="48">
         <v>43292</v>
       </c>
@@ -25030,7 +25142,7 @@
         <v>0.70650864294671623</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="48">
         <v>43293</v>
       </c>
@@ -25072,7 +25184,7 @@
         <v>0.73472423713393498</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="48">
         <v>43294</v>
       </c>
@@ -25114,7 +25226,7 @@
         <v>0.75980476530035157</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="48">
         <v>43295</v>
       </c>
@@ -25156,7 +25268,7 @@
         <v>0.78675403870269733</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="48">
         <v>43296</v>
       </c>
@@ -25198,7 +25310,7 @@
         <v>0.80837984705795574</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="48">
         <v>43297</v>
       </c>
@@ -25240,7 +25352,7 @@
         <v>0.82566574049029973</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="48">
         <v>43298</v>
       </c>
@@ -25282,7 +25394,7 @@
         <v>0.84227544321227465</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="48">
         <v>43299</v>
       </c>
@@ -25324,7 +25436,7 @@
         <v>0.85661068627209913</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="48">
         <v>43300</v>
       </c>
@@ -25366,7 +25478,7 @@
         <v>0.86869605842287734</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="48">
         <v>43301</v>
       </c>
@@ -25408,7 +25520,7 @@
         <v>0.87912168973911331</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="48">
         <v>43302</v>
       </c>
@@ -25450,7 +25562,7 @@
         <v>0.8897809142098404</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="48">
         <v>43303</v>
       </c>
@@ -25492,7 +25604,7 @@
         <v>0.89986230298261571</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="48">
         <v>43304</v>
       </c>
@@ -25534,7 +25646,7 @@
         <v>0.90789053087117955</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="48">
         <v>43305</v>
       </c>
@@ -25576,7 +25688,7 @@
         <v>0.91810715778602869</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="48">
         <v>43306</v>
       </c>
@@ -25618,7 +25730,7 @@
         <v>0.92650421697115737</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="48">
         <v>43307</v>
       </c>
@@ -25660,7 +25772,7 @@
         <v>0.93520863557009026</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="48">
         <v>43308</v>
       </c>
@@ -25702,7 +25814,7 @@
         <v>0.94343357348348866</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="48">
         <v>43309</v>
       </c>
@@ -25744,7 +25856,7 @@
         <v>0.94996188743268828</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="48">
         <v>43310</v>
       </c>
@@ -25786,7 +25898,7 @@
         <v>0.95464604489906313</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="48">
         <v>43311</v>
       </c>
@@ -25828,7 +25940,7 @@
         <v>0.95999409869925501</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="48">
         <v>43312</v>
       </c>
@@ -25870,7 +25982,7 @@
         <v>0.96365782291180013</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="48">
         <v>43313</v>
       </c>
@@ -25912,7 +26024,7 @@
         <v>0.96687894956846743</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="48">
         <v>43314</v>
       </c>
@@ -25954,7 +26066,7 @@
         <v>0.96973124492856966</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="48">
         <v>43315</v>
       </c>
@@ -25996,7 +26108,7 @@
         <v>0.97265730654798499</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="48">
         <v>43316</v>
       </c>
@@ -26038,7 +26150,7 @@
         <v>0.97650544640881265</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="48">
         <v>43317</v>
       </c>
@@ -26080,7 +26192,7 @@
         <v>0.97976345619513638</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="48">
         <v>43318</v>
       </c>
@@ -26122,7 +26234,7 @@
         <v>0.98260345717868647</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="48">
         <v>43319</v>
       </c>
@@ -26164,7 +26276,7 @@
         <v>0.98533280877326712</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="48">
         <v>43320</v>
       </c>
@@ -26206,7 +26318,7 @@
         <v>0.98683272271263123</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="48">
         <v>43321</v>
       </c>
@@ -26248,7 +26360,7 @@
         <v>0.98829575352233889</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="48">
         <v>43322</v>
       </c>
@@ -26290,7 +26402,7 @@
         <v>0.99012761562861151</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="48">
         <v>43323</v>
       </c>
@@ -26332,7 +26444,7 @@
         <v>0.99138164203693235</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="48">
         <v>43324</v>
       </c>
@@ -26374,7 +26486,7 @@
         <v>0.99263566844525319</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="48">
         <v>43325</v>
       </c>
@@ -26416,7 +26528,7 @@
         <v>0.9940864048784086</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="48">
         <v>43326</v>
       </c>
@@ -26458,7 +26570,7 @@
         <v>0.99535272566328159</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="48">
         <v>43327</v>
       </c>
@@ -26500,7 +26612,7 @@
         <v>0.99604121075020291</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="48">
         <v>43328</v>
       </c>
@@ -26542,7 +26654,7 @@
         <v>0.99671740146057197</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="48">
         <v>43329</v>
       </c>
@@ -26584,7 +26696,7 @@
         <v>0.99709852713368907</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="48">
         <v>43330</v>
       </c>
@@ -26626,7 +26738,7 @@
         <v>0.99743047530059747</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="48">
         <v>43331</v>
       </c>
@@ -26668,7 +26780,7 @@
         <v>0.99792225036268412</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="48">
         <v>43332</v>
       </c>
@@ -26710,7 +26822,7 @@
         <v>0.99827878728269692</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="48">
         <v>43333</v>
       </c>
@@ -26752,7 +26864,7 @@
         <v>0.99868450170891832</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="48">
         <v>43334</v>
       </c>
@@ -26794,7 +26906,7 @@
         <v>0.99889350611030514</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="48">
         <v>43335</v>
       </c>
@@ -26836,7 +26948,7 @@
         <v>0.99911480488824411</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="48">
         <v>43336</v>
       </c>
@@ -26878,7 +26990,7 @@
         <v>0.9992131599006614</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="48">
         <v>43337</v>
       </c>
@@ -26920,7 +27032,7 @@
         <v>0.99927463178342224</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="48">
         <v>43338</v>
       </c>
@@ -26962,7 +27074,7 @@
         <v>0.99942216430204822</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="48">
         <v>43339</v>
       </c>
@@ -27004,7 +27116,7 @@
         <v>0.99959428557377861</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="48">
         <v>43340</v>
       </c>
@@ -27046,7 +27158,7 @@
         <v>0.99969264058619589</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="48">
         <v>43341</v>
       </c>
@@ -27088,7 +27200,7 @@
         <v>0.99972952371585233</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="48">
         <v>43342</v>
       </c>
@@ -27130,7 +27242,7 @@
         <v>0.99979099559861317</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="48">
         <v>43343</v>
       </c>
@@ -27172,7 +27284,7 @@
         <v>0.99985246748137402</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="48">
         <v>43344</v>
       </c>
@@ -27232,7 +27344,7 @@
         <v>1.4730771641697487E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="48">
         <v>43345</v>
       </c>
@@ -27292,7 +27404,7 @@
         <v>3.3285275496771766E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="48">
         <v>43346</v>
       </c>
@@ -27352,7 +27464,7 @@
         <v>5.5976932238450447E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="48">
         <v>43347</v>
       </c>
@@ -27412,7 +27524,7 @@
         <v>8.1677427443114153E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="48">
         <v>43348</v>
       </c>
@@ -27472,7 +27584,7 @@
         <v>0.11126433899580017</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="48">
         <v>43349</v>
       </c>
@@ -27532,7 +27644,7 @@
         <v>0.1441735096846988</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="48">
         <v>43350</v>
       </c>
@@ -27592,7 +27704,7 @@
         <v>0.17156647652479157</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="48">
         <v>43351</v>
       </c>
@@ -27652,7 +27764,7 @@
         <v>0.20497712029085438</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="48">
         <v>43352</v>
       </c>
@@ -27712,7 +27824,7 @@
         <v>0.2363818717482605</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="48">
         <v>43353</v>
       </c>
@@ -27772,7 +27884,7 @@
         <v>0.27286403811195387</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="48">
         <v>43354</v>
       </c>
@@ -27832,7 +27944,7 @@
         <v>0.33109759919764309</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="48">
         <v>43355</v>
       </c>
@@ -27892,7 +28004,7 @@
         <v>0.36971102613928414</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="48">
         <v>43356</v>
       </c>
@@ -27952,7 +28064,7 @@
         <v>0.40443803673290291</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="48">
         <v>43357</v>
       </c>
@@ -28012,7 +28124,7 @@
         <v>0.43621889299818217</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="48">
         <v>43358</v>
       </c>
@@ -28072,7 +28184,7 @@
         <v>0.47746505359493513</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="48">
         <v>43359</v>
       </c>
@@ -28132,7 +28244,7 @@
         <v>0.52698551996489684</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="48">
         <v>43360</v>
       </c>
@@ -28192,7 +28304,7 @@
         <v>0.56290352911678054</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="48">
         <v>43361</v>
       </c>
@@ -28252,7 +28364,7 @@
         <v>0.60233184980881338</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="48">
         <v>43362</v>
       </c>
@@ -28312,7 +28424,7 @@
         <v>0.64558390271422306</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="48">
         <v>43363</v>
       </c>
@@ -28372,7 +28484,7 @@
         <v>0.67698865417162912</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="48">
         <v>43364</v>
       </c>
@@ -28432,7 +28544,7 @@
         <v>0.70745314360935252</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="48">
         <v>43365</v>
       </c>
@@ -28492,7 +28604,7 @@
         <v>0.74186673352974364</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="48">
         <v>43366</v>
       </c>
@@ -28552,7 +28664,7 @@
         <v>0.7742117470068326</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="48">
         <v>43367</v>
       </c>
@@ -28612,7 +28724,7 @@
         <v>0.8154579076035855</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="48">
         <v>43368</v>
       </c>
@@ -28672,7 +28784,7 @@
         <v>0.84416724127123421</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="48">
         <v>43369</v>
       </c>
@@ -28732,7 +28844,7 @@
         <v>0.87112141916880836</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="48">
         <v>43370</v>
       </c>
@@ -28792,7 +28904,7 @@
         <v>0.90171127687582275</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="48">
         <v>43371</v>
       </c>
@@ -28852,7 +28964,7 @@
         <v>0.91988967592302384</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="48">
         <v>43372</v>
       </c>
@@ -28912,7 +29024,7 @@
         <v>0.94684385382059799</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="48">
         <v>43373</v>
       </c>
@@ -28972,7 +29084,7 @@
         <v>0.96815645960007524</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="48">
         <v>43374</v>
       </c>
@@ -29032,7 +29144,7 @@
         <v>0.9883407509559331</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="48">
         <v>43375</v>
       </c>
@@ -29092,10 +29204,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="49"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="49"/>
     </row>
   </sheetData>
